--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\Fraud\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D48548D-BCAA-4E97-B1FF-FCBF7B8CE9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EFF70-9569-4EBB-81EB-B3D16F650C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-13630" windowWidth="21820" windowHeight="37900" xr2:uid="{3DEF04DC-BBF4-410A-AA64-73E624117190}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TRIAL</t>
   </si>
@@ -53,7 +53,10 @@
     <t>SD</t>
   </si>
   <si>
-    <t>ROUND</t>
+    <t>ROUND MEAN</t>
+  </si>
+  <si>
+    <t>ROUND OBS</t>
   </si>
 </sst>
 </file>
@@ -453,13 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D2899-A802-4262-9664-C3FD77907ED2}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +487,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -487,7 +499,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -495,7 +507,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -503,7 +515,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -511,7 +523,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -519,7 +531,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -527,7 +539,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -535,7 +547,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -543,7 +555,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -551,7 +563,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -559,7 +571,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -567,7 +579,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -575,7 +587,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -583,7 +595,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -591,7 +603,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
